--- a/data/G7/1.xlsx
+++ b/data/G7/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gatesma/myFile/大学6/数据可视化/teamwork/visualization/data/G7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB42AC0-F36D-4347-85E3-4FD0010017EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C48EE15-198D-B44A-BF70-664C9E0F13CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16100" xr2:uid="{7E9D8E09-2A21-BF42-9DFB-BA0782A3F0C8}"/>
   </bookViews>
@@ -348,7 +348,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="m\-d"/>
+    <numFmt numFmtId="176" formatCode="m\-d"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -441,13 +441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="47" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -456,19 +450,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="47" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="47" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C4947F-62A4-F343-A40C-8AAE0181553A}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -798,7 +798,7 @@
     <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="32" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
@@ -811,7 +811,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -819,155 +819,155 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18">
-      <c r="A2" s="2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="9">
         <v>7.69675925925926E-3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="18">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="18">
-      <c r="A4" s="2">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="9">
         <v>7.3726851851851861E-3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="18">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="9">
         <v>7.0949074074074074E-3</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10">
         <v>43923</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="18">
-      <c r="A8" s="2">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="9">
         <v>6.6898148148148142E-3</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10">
         <v>43926</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="18">
-      <c r="A10" s="2">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="9">
         <v>6.3194444444444444E-3</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10">
         <v>43929</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="18">
       <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="5">
         <v>5.5324074074074069E-3</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="6">
         <v>43990</v>
       </c>
     </row>
@@ -975,61 +975,61 @@
       <c r="A13" s="1">
         <v>7</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="5">
         <v>4.9421296296296288E-3</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="6">
         <v>44051</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18">
-      <c r="A14" s="2">
+      <c r="A14" s="7">
         <v>8</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="9">
         <v>4.6527777777777774E-3</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10">
         <v>44054</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="18">
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="5">
         <v>4.2129629629629626E-3</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="6">
         <v>44115</v>
       </c>
     </row>
@@ -1037,355 +1037,354 @@
       <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="5">
         <v>3.3564814814814811E-3</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="10">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="6">
         <v>44117</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18">
-      <c r="A18" s="2">
+      <c r="A18" s="7">
         <v>11</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="9">
         <v>2.9629629629629628E-3</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="10">
         <v>44178</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:7" ht="18">
-      <c r="A20" s="2">
+      <c r="A20" s="7">
         <v>12</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="9">
         <v>2.7199074074074074E-3</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="18">
-      <c r="A22" s="2">
+      <c r="A22" s="7">
         <v>13</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="9">
         <v>2.5231481481481481E-3</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="18">
-      <c r="A24" s="2">
+      <c r="A24" s="7">
         <v>14</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="9">
         <v>2.2222222222222222E-3</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="18">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:7" ht="18">
       <c r="A26" s="1">
         <v>15</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="5">
         <v>9.9537037037037042E-4</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="10" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18">
-      <c r="A27" s="2">
+      <c r="A27" s="7">
         <v>16</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="9">
         <v>7.6388888888888893E-4</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="18">
-      <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="G28" s="5"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="10"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="18">
-      <c r="A29" s="2"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="G29" s="5"/>
+      <c r="E29" s="10"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="18">
-      <c r="A30" s="2"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="5"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="18">
-      <c r="A31" s="2">
+      <c r="A31" s="7">
         <v>17</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="9">
         <v>4.3981481481481481E-4</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" ht="18">
-      <c r="A32" s="2"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="11"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" ht="18">
-      <c r="A33" s="2">
+      <c r="A33" s="7">
         <v>18</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="9">
         <v>2.8935185185185189E-4</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="2"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="E34" s="7"/>
-      <c r="G34" s="11"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="3"/>
+      <c r="E34" s="10"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="2"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="E35" s="7"/>
-      <c r="G35" s="11"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="3"/>
+      <c r="E35" s="10"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" ht="18">
-      <c r="A36" s="2"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="11"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" ht="18">
-      <c r="A37" s="2">
+      <c r="A37" s="7">
         <v>19</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="9">
         <v>4.6296296296296294E-5</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="5"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="2"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="5"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="3"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="2"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="5"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="3"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="18">
-      <c r="A40" s="2"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="5"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="18">
-      <c r="A41" s="2"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="6"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="18">
-      <c r="A42" s="2"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="6"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="18">
-      <c r="A43" s="2"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="6"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="B37:B43"/>
     <mergeCell ref="E37:E43"/>
     <mergeCell ref="F37:F43"/>
@@ -1397,6 +1396,11 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="G33:G36"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="B22:B23"/>
@@ -1408,23 +1412,19 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
